--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H2">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I2">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J2">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8828889200364</v>
+        <v>11.06743033333333</v>
       </c>
       <c r="N2">
-        <v>10.8828889200364</v>
+        <v>33.202291</v>
       </c>
       <c r="O2">
-        <v>0.5232877454832635</v>
+        <v>0.51402483062483</v>
       </c>
       <c r="P2">
-        <v>0.5232877454832635</v>
+        <v>0.5335159299515567</v>
       </c>
       <c r="Q2">
-        <v>19.97691888459691</v>
+        <v>21.16426547215056</v>
       </c>
       <c r="R2">
-        <v>19.97691888459691</v>
+        <v>190.478389249355</v>
       </c>
       <c r="S2">
-        <v>0.07459857671793349</v>
+        <v>0.07534425637048177</v>
       </c>
       <c r="T2">
-        <v>0.07459857671793349</v>
+        <v>0.09164376536669168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H3">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I3">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J3">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.45536335609057</v>
+        <v>7.922129000000001</v>
       </c>
       <c r="N3">
-        <v>7.45536335609057</v>
+        <v>23.766387</v>
       </c>
       <c r="O3">
-        <v>0.3584802078779393</v>
+        <v>0.3679418704040381</v>
       </c>
       <c r="P3">
-        <v>0.3584802078779393</v>
+        <v>0.3818937091387335</v>
       </c>
       <c r="Q3">
-        <v>13.68526226024545</v>
+        <v>15.14950049024834</v>
       </c>
       <c r="R3">
-        <v>13.68526226024545</v>
+        <v>136.345504412235</v>
       </c>
       <c r="S3">
-        <v>0.05110403123342109</v>
+        <v>0.05393184329141881</v>
       </c>
       <c r="T3">
-        <v>0.05110403123342109</v>
+        <v>0.06559912368221793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H4">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I4">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J4">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.101053753572531</v>
+        <v>0.130826</v>
       </c>
       <c r="N4">
-        <v>0.101053753572531</v>
+        <v>0.392478</v>
       </c>
       <c r="O4">
-        <v>0.004859021466463168</v>
+        <v>0.006076190268736938</v>
       </c>
       <c r="P4">
-        <v>0.004859021466463168</v>
+        <v>0.006306590866140143</v>
       </c>
       <c r="Q4">
-        <v>0.1854969441419002</v>
+        <v>0.2501787778433334</v>
       </c>
       <c r="R4">
-        <v>0.1854969441419002</v>
+        <v>2.25160900059</v>
       </c>
       <c r="S4">
-        <v>0.000692689803590349</v>
+        <v>0.0008906301993369657</v>
       </c>
       <c r="T4">
-        <v>0.000692689803590349</v>
+        <v>0.001083303611295631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H5">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I5">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J5">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.35783476706405</v>
+        <v>0.05075266666666667</v>
       </c>
       <c r="N5">
-        <v>2.35783476706405</v>
+        <v>0.152258</v>
       </c>
       <c r="O5">
-        <v>0.1133730251723341</v>
+        <v>0.002357198563836314</v>
       </c>
       <c r="P5">
-        <v>0.1133730251723341</v>
+        <v>0.002446580221303527</v>
       </c>
       <c r="Q5">
-        <v>4.328103891440199</v>
+        <v>0.09705440905444446</v>
       </c>
       <c r="R5">
-        <v>4.328103891440199</v>
+        <v>0.8734896814900001</v>
       </c>
       <c r="S5">
-        <v>0.01616217155678274</v>
+        <v>0.0003455112716907641</v>
       </c>
       <c r="T5">
-        <v>0.01616217155678274</v>
+        <v>0.0004202570366967069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69574730063551</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H6">
-        <v>4.69574730063551</v>
+        <v>5.736905</v>
       </c>
       <c r="I6">
-        <v>0.3646786890278171</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J6">
-        <v>0.3646786890278171</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.8828889200364</v>
+        <v>2.3597875</v>
       </c>
       <c r="N6">
-        <v>10.8828889200364</v>
+        <v>4.719575</v>
       </c>
       <c r="O6">
-        <v>0.5232877454832635</v>
+        <v>0.1095999101385586</v>
       </c>
       <c r="P6">
-        <v>0.5232877454832635</v>
+        <v>0.07583718982226613</v>
       </c>
       <c r="Q6">
-        <v>51.10329626937703</v>
+        <v>4.512625569229167</v>
       </c>
       <c r="R6">
-        <v>51.10329626937703</v>
+        <v>27.075753415375</v>
       </c>
       <c r="S6">
-        <v>0.1908318890071586</v>
+        <v>0.01606483429530736</v>
       </c>
       <c r="T6">
-        <v>0.1908318890071586</v>
+        <v>0.01302680058826374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H7">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J7">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.45536335609057</v>
+        <v>11.06743033333333</v>
       </c>
       <c r="N7">
-        <v>7.45536335609057</v>
+        <v>33.202291</v>
       </c>
       <c r="O7">
-        <v>0.3584802078779393</v>
+        <v>0.51402483062483</v>
       </c>
       <c r="P7">
-        <v>0.3584802078779393</v>
+        <v>0.5335159299515567</v>
       </c>
       <c r="Q7">
-        <v>35.00850235461919</v>
+        <v>52.28363288112622</v>
       </c>
       <c r="R7">
-        <v>35.00850235461919</v>
+        <v>470.552695930136</v>
       </c>
       <c r="S7">
-        <v>0.1307300922513463</v>
+        <v>0.1861284269449038</v>
       </c>
       <c r="T7">
-        <v>0.1307300922513463</v>
+        <v>0.2263942961111092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H8">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J8">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.101053753572531</v>
+        <v>7.922129000000001</v>
       </c>
       <c r="N8">
-        <v>0.101053753572531</v>
+        <v>23.766387</v>
       </c>
       <c r="O8">
-        <v>0.004859021466463168</v>
+        <v>0.3679418704040381</v>
       </c>
       <c r="P8">
-        <v>0.004859021466463168</v>
+        <v>0.3818937091387335</v>
       </c>
       <c r="Q8">
-        <v>0.4745228905572985</v>
+        <v>37.42491904606133</v>
       </c>
       <c r="R8">
-        <v>0.4745228905572985</v>
+        <v>336.824271414552</v>
       </c>
       <c r="S8">
-        <v>0.001771981578347809</v>
+        <v>0.1332317768817161</v>
       </c>
       <c r="T8">
-        <v>0.001771981578347809</v>
+        <v>0.1620543129378999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H9">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J9">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.35783476706405</v>
+        <v>0.130826</v>
       </c>
       <c r="N9">
-        <v>2.35783476706405</v>
+        <v>0.392478</v>
       </c>
       <c r="O9">
-        <v>0.1133730251723341</v>
+        <v>0.006076190268736938</v>
       </c>
       <c r="P9">
-        <v>0.1133730251723341</v>
+        <v>0.006306590866140143</v>
       </c>
       <c r="Q9">
-        <v>11.07179624278557</v>
+        <v>0.6180349321653333</v>
       </c>
       <c r="R9">
-        <v>11.07179624278557</v>
+        <v>5.562314389488</v>
       </c>
       <c r="S9">
-        <v>0.0413447261909645</v>
+        <v>0.002200188919206868</v>
       </c>
       <c r="T9">
-        <v>0.0413447261909645</v>
+        <v>0.002676164140272607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287535631195055</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H10">
-        <v>0.287535631195055</v>
+        <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.02233044291348628</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J10">
-        <v>0.02233044291348628</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>10.8828889200364</v>
+        <v>0.05075266666666667</v>
       </c>
       <c r="N10">
-        <v>10.8828889200364</v>
+        <v>0.152258</v>
       </c>
       <c r="O10">
-        <v>0.5232877454832635</v>
+        <v>0.002357198563836314</v>
       </c>
       <c r="P10">
-        <v>0.5232877454832635</v>
+        <v>0.002446580221303527</v>
       </c>
       <c r="Q10">
-        <v>3.129218334848336</v>
+        <v>0.2397606049297778</v>
       </c>
       <c r="R10">
-        <v>3.129218334848336</v>
+        <v>2.157845444368</v>
       </c>
       <c r="S10">
-        <v>0.01168524712784095</v>
+        <v>0.0008535417640239692</v>
       </c>
       <c r="T10">
-        <v>0.01168524712784095</v>
+        <v>0.001038191693979348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287535631195055</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H11">
-        <v>0.287535631195055</v>
+        <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.02233044291348628</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J11">
-        <v>0.02233044291348628</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.45536335609057</v>
+        <v>2.3597875</v>
       </c>
       <c r="N11">
-        <v>7.45536335609057</v>
+        <v>4.719575</v>
       </c>
       <c r="O11">
-        <v>0.3584802078779393</v>
+        <v>0.1095999101385586</v>
       </c>
       <c r="P11">
-        <v>0.3584802078779393</v>
+        <v>0.07583718982226613</v>
       </c>
       <c r="Q11">
-        <v>2.143682608381985</v>
+        <v>11.14786898236667</v>
       </c>
       <c r="R11">
-        <v>2.143682608381985</v>
+        <v>66.88721389419999</v>
       </c>
       <c r="S11">
-        <v>0.00800502181763302</v>
+        <v>0.03968613508922444</v>
       </c>
       <c r="T11">
-        <v>0.00800502181763302</v>
+        <v>0.03218105823084883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H12">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I12">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J12">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.101053753572531</v>
+        <v>11.06743033333333</v>
       </c>
       <c r="N12">
-        <v>0.101053753572531</v>
+        <v>33.202291</v>
       </c>
       <c r="O12">
-        <v>0.004859021466463168</v>
+        <v>0.51402483062483</v>
       </c>
       <c r="P12">
-        <v>0.004859021466463168</v>
+        <v>0.5335159299515567</v>
       </c>
       <c r="Q12">
-        <v>0.02905655481810725</v>
+        <v>3.75993441799989</v>
       </c>
       <c r="R12">
-        <v>0.02905655481810725</v>
+        <v>33.83940976199901</v>
       </c>
       <c r="S12">
-        <v>0.0001085041014722602</v>
+        <v>0.01338527260011713</v>
       </c>
       <c r="T12">
-        <v>0.0001085041014722602</v>
+        <v>0.01628095943375621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H13">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I13">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J13">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.35783476706405</v>
+        <v>7.922129000000001</v>
       </c>
       <c r="N13">
-        <v>2.35783476706405</v>
+        <v>23.766387</v>
       </c>
       <c r="O13">
-        <v>0.1133730251723341</v>
+        <v>0.3679418704040381</v>
       </c>
       <c r="P13">
-        <v>0.1133730251723341</v>
+        <v>0.3818937091387335</v>
       </c>
       <c r="Q13">
-        <v>0.6779615080014071</v>
+        <v>2.691382244460334</v>
       </c>
       <c r="R13">
-        <v>0.6779615080014071</v>
+        <v>24.22244020014301</v>
       </c>
       <c r="S13">
-        <v>0.00253166986654005</v>
+        <v>0.009581253556113941</v>
       </c>
       <c r="T13">
-        <v>0.00253166986654005</v>
+        <v>0.01165400250946391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H14">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I14">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J14">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.8828889200364</v>
+        <v>0.130826</v>
       </c>
       <c r="N14">
-        <v>10.8828889200364</v>
+        <v>0.392478</v>
       </c>
       <c r="O14">
-        <v>0.5232877454832635</v>
+        <v>0.006076190268736938</v>
       </c>
       <c r="P14">
-        <v>0.5232877454832635</v>
+        <v>0.006306590866140143</v>
       </c>
       <c r="Q14">
-        <v>3.448412185370532</v>
+        <v>0.04444547337133334</v>
       </c>
       <c r="R14">
-        <v>3.448412185370532</v>
+        <v>0.400009260342</v>
       </c>
       <c r="S14">
-        <v>0.01287719304721054</v>
+        <v>0.0001582247748972735</v>
       </c>
       <c r="T14">
-        <v>0.01287719304721054</v>
+        <v>0.0001924541410904979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H15">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I15">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J15">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>7.45536335609057</v>
+        <v>0.05075266666666667</v>
       </c>
       <c r="N15">
-        <v>7.45536335609057</v>
+        <v>0.152258</v>
       </c>
       <c r="O15">
-        <v>0.3584802078779393</v>
+        <v>0.002357198563836314</v>
       </c>
       <c r="P15">
-        <v>0.3584802078779393</v>
+        <v>0.002446580221303527</v>
       </c>
       <c r="Q15">
-        <v>2.362347537718108</v>
+        <v>0.01724218652911111</v>
       </c>
       <c r="R15">
-        <v>2.362347537718108</v>
+        <v>0.155179678762</v>
       </c>
       <c r="S15">
-        <v>0.008821568783700922</v>
+        <v>6.138175331180108E-05</v>
       </c>
       <c r="T15">
-        <v>0.008821568783700922</v>
+        <v>7.466070101803673E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H16">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I16">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J16">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.101053753572531</v>
+        <v>2.3597875</v>
       </c>
       <c r="N16">
-        <v>0.101053753572531</v>
+        <v>4.719575</v>
       </c>
       <c r="O16">
-        <v>0.004859021466463168</v>
+        <v>0.1095999101385586</v>
       </c>
       <c r="P16">
-        <v>0.004859021466463168</v>
+        <v>0.07583718982226613</v>
       </c>
       <c r="Q16">
-        <v>0.0320204495109173</v>
+        <v>0.8016898207791667</v>
       </c>
       <c r="R16">
-        <v>0.0320204495109173</v>
+        <v>4.810138924675001</v>
       </c>
       <c r="S16">
-        <v>0.0001195719907149775</v>
+        <v>0.002853995734738506</v>
       </c>
       <c r="T16">
-        <v>0.0001195719907149775</v>
+        <v>0.002314274310756747</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H17">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I17">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J17">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.35783476706405</v>
+        <v>11.06743033333333</v>
       </c>
       <c r="N17">
-        <v>2.35783476706405</v>
+        <v>33.202291</v>
       </c>
       <c r="O17">
-        <v>0.1133730251723341</v>
+        <v>0.51402483062483</v>
       </c>
       <c r="P17">
-        <v>0.1133730251723341</v>
+        <v>0.5335159299515567</v>
       </c>
       <c r="Q17">
-        <v>0.7471165240751869</v>
+        <v>3.643600968622778</v>
       </c>
       <c r="R17">
-        <v>0.7471165240751869</v>
+        <v>32.792408717605</v>
       </c>
       <c r="S17">
-        <v>0.002789911180018451</v>
+        <v>0.01297112842649271</v>
       </c>
       <c r="T17">
-        <v>0.002789911180018451</v>
+        <v>0.01577722187891204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H18">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I18">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J18">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8828889200364</v>
+        <v>7.922129000000001</v>
       </c>
       <c r="N18">
-        <v>10.8828889200364</v>
+        <v>23.766387</v>
       </c>
       <c r="O18">
-        <v>0.5232877454832635</v>
+        <v>0.3679418704040381</v>
       </c>
       <c r="P18">
-        <v>0.5232877454832635</v>
+        <v>0.3818937091387335</v>
       </c>
       <c r="Q18">
-        <v>62.47454430892174</v>
+        <v>2.608110105831667</v>
       </c>
       <c r="R18">
-        <v>62.47454430892174</v>
+        <v>23.472990952485</v>
       </c>
       <c r="S18">
-        <v>0.2332948395831199</v>
+        <v>0.009284806822840231</v>
       </c>
       <c r="T18">
-        <v>0.2332948395831199</v>
+        <v>0.01129342432903472</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H19">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I19">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J19">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.45536335609057</v>
+        <v>0.130826</v>
       </c>
       <c r="N19">
-        <v>7.45536335609057</v>
+        <v>0.392478</v>
       </c>
       <c r="O19">
-        <v>0.3584802078779393</v>
+        <v>0.006076190268736938</v>
       </c>
       <c r="P19">
-        <v>0.3584802078779393</v>
+        <v>0.006306590866140143</v>
       </c>
       <c r="Q19">
-        <v>42.79841793401618</v>
+        <v>0.04307031767666666</v>
       </c>
       <c r="R19">
-        <v>42.79841793401618</v>
+        <v>0.3876328590899999</v>
       </c>
       <c r="S19">
-        <v>0.159819493791838</v>
+        <v>0.0001533292549774052</v>
       </c>
       <c r="T19">
-        <v>0.159819493791838</v>
+        <v>0.0001864995547623999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H20">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I20">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J20">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.101053753572531</v>
+        <v>0.05075266666666667</v>
       </c>
       <c r="N20">
-        <v>0.101053753572531</v>
+        <v>0.152258</v>
       </c>
       <c r="O20">
-        <v>0.004859021466463168</v>
+        <v>0.002357198563836314</v>
       </c>
       <c r="P20">
-        <v>0.004859021466463168</v>
+        <v>0.002446580221303527</v>
       </c>
       <c r="Q20">
-        <v>0.5801113336300442</v>
+        <v>0.01670870833222222</v>
       </c>
       <c r="R20">
-        <v>0.5801113336300442</v>
+        <v>0.15037837499</v>
       </c>
       <c r="S20">
-        <v>0.002166273992337771</v>
+        <v>5.948258425784314E-05</v>
       </c>
       <c r="T20">
-        <v>0.002166273992337771</v>
+        <v>7.235067751316886E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H21">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I21">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J21">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.35783476706405</v>
+        <v>2.3597875</v>
       </c>
       <c r="N21">
-        <v>2.35783476706405</v>
+        <v>4.719575</v>
       </c>
       <c r="O21">
-        <v>0.1133730251723341</v>
+        <v>0.1095999101385586</v>
       </c>
       <c r="P21">
-        <v>0.1133730251723341</v>
+        <v>0.07583718982226613</v>
       </c>
       <c r="Q21">
-        <v>13.53543656564001</v>
+        <v>0.7768853077708333</v>
       </c>
       <c r="R21">
-        <v>13.53543656564001</v>
+        <v>4.661311846625</v>
       </c>
       <c r="S21">
-        <v>0.05054454637802832</v>
+        <v>0.002765692288077244</v>
       </c>
       <c r="T21">
-        <v>0.05054454637802832</v>
+        <v>0.002242669999764964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.7410415</v>
+      </c>
+      <c r="H22">
+        <v>11.482083</v>
+      </c>
+      <c r="I22">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J22">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.06743033333333</v>
+      </c>
+      <c r="N22">
+        <v>33.202291</v>
+      </c>
+      <c r="O22">
+        <v>0.51402483062483</v>
+      </c>
+      <c r="P22">
+        <v>0.5335159299515567</v>
+      </c>
+      <c r="Q22">
+        <v>63.5385768420255</v>
+      </c>
+      <c r="R22">
+        <v>381.231461052153</v>
+      </c>
+      <c r="S22">
+        <v>0.2261957462828346</v>
+      </c>
+      <c r="T22">
+        <v>0.1834196871610876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.7410415</v>
+      </c>
+      <c r="H23">
+        <v>11.482083</v>
+      </c>
+      <c r="I23">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J23">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.922129000000001</v>
+      </c>
+      <c r="N23">
+        <v>23.766387</v>
+      </c>
+      <c r="O23">
+        <v>0.3679418704040381</v>
+      </c>
+      <c r="P23">
+        <v>0.3818937091387335</v>
+      </c>
+      <c r="Q23">
+        <v>45.4812713573535</v>
+      </c>
+      <c r="R23">
+        <v>272.887628144121</v>
+      </c>
+      <c r="S23">
+        <v>0.1619121898519491</v>
+      </c>
+      <c r="T23">
+        <v>0.131292845680117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.7410415</v>
+      </c>
+      <c r="H24">
+        <v>11.482083</v>
+      </c>
+      <c r="I24">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J24">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.130826</v>
+      </c>
+      <c r="N24">
+        <v>0.392478</v>
+      </c>
+      <c r="O24">
+        <v>0.006076190268736938</v>
+      </c>
+      <c r="P24">
+        <v>0.006306590866140143</v>
+      </c>
+      <c r="Q24">
+        <v>0.7510774952789999</v>
+      </c>
+      <c r="R24">
+        <v>4.506464971673999</v>
+      </c>
+      <c r="S24">
+        <v>0.002673817120318425</v>
+      </c>
+      <c r="T24">
+        <v>0.002168169418719008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.7410415</v>
+      </c>
+      <c r="H25">
+        <v>11.482083</v>
+      </c>
+      <c r="I25">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J25">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.05075266666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.152258</v>
+      </c>
+      <c r="O25">
+        <v>0.002357198563836314</v>
+      </c>
+      <c r="P25">
+        <v>0.002446580221303527</v>
+      </c>
+      <c r="Q25">
+        <v>0.291373165569</v>
+      </c>
+      <c r="R25">
+        <v>1.748238993414</v>
+      </c>
+      <c r="S25">
+        <v>0.001037281190551936</v>
+      </c>
+      <c r="T25">
+        <v>0.0008411201120962668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.7410415</v>
+      </c>
+      <c r="H26">
+        <v>11.482083</v>
+      </c>
+      <c r="I26">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J26">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.3597875</v>
+      </c>
+      <c r="N26">
+        <v>4.719575</v>
+      </c>
+      <c r="O26">
+        <v>0.1095999101385586</v>
+      </c>
+      <c r="P26">
+        <v>0.07583718982226613</v>
+      </c>
+      <c r="Q26">
+        <v>13.54763796868125</v>
+      </c>
+      <c r="R26">
+        <v>54.190551874725</v>
+      </c>
+      <c r="S26">
+        <v>0.04822925273121104</v>
+      </c>
+      <c r="T26">
+        <v>0.02607238669263184</v>
       </c>
     </row>
   </sheetData>
